--- a/R/analysis/data/Pt_40_M1.xlsx
+++ b/R/analysis/data/Pt_40_M1.xlsx
@@ -521,10 +521,10 @@
         <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>3.32</v>
+        <v>2.38</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0.82</v>
       </c>
       <c r="L3" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>1.35</v>
       </c>
       <c r="K4" t="n">
-        <v>6.54</v>
+        <v>1.94</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.38</v>
+        <v>4.62</v>
       </c>
       <c r="M4" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.79</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.43</v>
+        <v>4.43</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -807,16 +807,16 @@
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>5.25</v>
+        <v>1.01</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.71</v>
+        <v>3.71</v>
       </c>
       <c r="M7" t="n">
-        <v>7.07</v>
+        <v>1.41</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>1.05</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>0.71</v>
@@ -987,16 +987,16 @@
         <v>0.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.83</v>
+        <v>1.53</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.08</v>
+        <v>3.42</v>
       </c>
       <c r="M10" t="n">
-        <v>5.3</v>
+        <v>1.77</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.25</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="N11" t="n">
-        <v>-3</v>
+        <v>3.33</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>1.63</v>
       </c>
       <c r="L12" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1163,16 +1163,16 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>6.01</v>
+        <v>0.35</v>
       </c>
       <c r="L13" t="n">
-        <v>0.25</v>
+        <v>4.25</v>
       </c>
       <c r="M13" t="n">
-        <v>4.24</v>
+        <v>0.23</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0.71</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.26</v>
@@ -1343,16 +1343,16 @@
         <v>2.03</v>
       </c>
       <c r="K16" t="n">
-        <v>5.36</v>
+        <v>0.06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04</v>
+        <v>3.79</v>
       </c>
       <c r="M16" t="n">
-        <v>5.13</v>
+        <v>1.24</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.88</v>
+        <v>3.62</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0.5</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.71</v>
@@ -1519,16 +1519,16 @@
         <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>6.09</v>
+        <v>0.63</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.45</v>
+        <v>4.3</v>
       </c>
       <c r="M19" t="n">
-        <v>5.48</v>
+        <v>1.59</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.12</v>
+        <v>3.88</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4.04</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.33</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>1.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.95</v>
+        <v>3.54</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.17</v>
@@ -1699,16 +1699,16 @@
         <v>0.8</v>
       </c>
       <c r="K22" t="n">
-        <v>5.3</v>
+        <v>1.06</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="M22" t="n">
-        <v>5.06</v>
+        <v>0.12</v>
       </c>
       <c r="N22" t="n">
-        <v>0.25</v>
+        <v>3.92</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>1.41</v>
       </c>
       <c r="N23" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>2.08</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="M24" t="n">
         <v>1.14</v>
@@ -1879,16 +1879,16 @@
         <v>0.86</v>
       </c>
       <c r="K25" t="n">
-        <v>6.13</v>
+        <v>0.47</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.33</v>
+        <v>4.34</v>
       </c>
       <c r="M25" t="n">
-        <v>5.37</v>
+        <v>0.28</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.2</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0.71</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -2055,16 +2055,16 @@
         <v>0.72</v>
       </c>
       <c r="K28" t="n">
-        <v>5.51</v>
+        <v>0.56</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="M28" t="n">
-        <v>4.01</v>
+        <v>1.18</v>
       </c>
       <c r="N28" t="n">
-        <v>0.84</v>
+        <v>2.84</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
